--- a/artfynd/A 2968-2026 artfynd.xlsx
+++ b/artfynd/A 2968-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,6 +1066,125 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131258730</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>övernattning</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Skallberget, Skallberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>540241</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6737560</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Svärdsjö</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Göran Ehn</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Göran Ehn</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
